--- a/OfficeAddIns/ExcelAddIns/BananaFunctions/banana-functions-test.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaFunctions/banana-functions-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/General/OfficeAddIns/ExcelAddIns/BananaFunctions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2C48A-41C6-BF44-A5A6-09E567B35B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AE4AF-A7D9-3B4F-9928-B68803D7B1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51960" yWindow="-8660" windowWidth="29480" windowHeight="26880" xr2:uid="{23F3FEB7-2F62-7D43-A9C3-D68B4144E755}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +78,7 @@
     <t>// Cell B7 is for the name of the file from which to take the data. Re-enter it to recalculate</t>
   </si>
   <si>
-    <t>// Cells A10-A30 is for functions</t>
+    <t>// Cells A10-A30 are for functions</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -155,13 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -598,13 +595,13 @@
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -725,13 +722,13 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" cm="1">
+      <c r="A29" s="7" cm="1">
         <f t="array" ref="A29">_xldudf_BA_INFO(B7,"AccountingDataBase","OpeningDate")</f>
         <v>44927</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" cm="1">
+      <c r="A30" s="7" cm="1">
         <f t="array" ref="A30">_xldudf_BA_FUNCTIONSVERSION()</f>
         <v>45125</v>
       </c>

--- a/OfficeAddIns/ExcelAddIns/BananaFunctions/banana-functions-test.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaFunctions/banana-functions-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/General/OfficeAddIns/ExcelAddIns/BananaFunctions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AE4AF-A7D9-3B4F-9928-B68803D7B1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348558DA-4D05-B54C-835B-6921F5CE96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51960" yWindow="-8660" windowWidth="29480" windowHeight="26880" xr2:uid="{23F3FEB7-2F62-7D43-A9C3-D68B4144E755}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -710,9 +710,9 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str" cm="1">
-        <f t="array" ref="A27">_xldudf_BA_CELLVALUE(B7,"Accounts",5,"Balance")</f>
-        <v>Test XYZ</v>
+      <c r="A27" s="5" cm="1">
+        <f t="array" ref="A27">_xldudf_BA_CELLAMOUNT(B7,"Accounts",5,"Balance")</f>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
